--- a/ROK进度计划表.xlsx
+++ b/ROK进度计划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowHeight="18465"/>
   </bookViews>
   <sheets>
     <sheet name="201911" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>周目</t>
   </si>
@@ -49,7 +49,23 @@
     <t>第一周</t>
   </si>
   <si>
+    <t xml:space="preserve">创建第一版MVC模板，前半部分
+</t>
+  </si>
+  <si>
+    <t>修改了部分mvc框架，可以产生view</t>
+  </si>
+  <si>
+    <t>注意参数为空，不报空指针</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.回顾之前的进度
 2.完成创建第一版MVC创建流程
 3.弹窗/导航等MVC派生类的实现
@@ -79,6 +95,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>6.阅读《设计模式的艺术软件开发人员内功修炼之道_刘伟》第2、3、4章</t>
@@ -105,9 +122,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -120,7 +137,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,6 +203,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -149,13 +240,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -164,47 +264,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,51 +280,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -273,14 +290,12 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -292,19 +307,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,13 +439,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,55 +469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,85 +481,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,6 +512,24 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,21 +558,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -551,15 +569,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,15 +590,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -598,16 +598,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -616,34 +631,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -652,97 +664,100 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -754,6 +769,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -762,9 +780,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -818,18 +833,13 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
       <color rgb="00FF0000"/>
       <color rgb="000000FF"/>
     </mruColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -841,7 +851,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1085,6 +1095,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -1094,7 +1105,7 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:H25"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1148,16 +1159,24 @@
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2.25</v>
+      </c>
       <c r="G2" s="2">
         <f>SUM(F2:F11)</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>11</v>
+        <v>2.25</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -1289,7 +1308,7 @@
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2">
         <v>11</v>
@@ -1392,7 +1411,7 @@
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2">
         <v>18</v>
@@ -1495,7 +1514,7 @@
     </row>
     <row r="26" ht="20" customHeight="1" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B26" s="2">
         <v>25</v>
@@ -1510,7 +1529,7 @@
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="6"/>
+      <c r="J26" s="3"/>
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:10">
       <c r="A27" s="1"/>
@@ -1524,7 +1543,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="6"/>
+      <c r="J27" s="3"/>
     </row>
     <row r="28" ht="20" customHeight="1" spans="1:10">
       <c r="A28" s="1"/>
@@ -1538,7 +1557,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="6"/>
+      <c r="J28" s="3"/>
     </row>
     <row r="29" ht="20" customHeight="1" spans="1:10">
       <c r="A29" s="1"/>
@@ -1552,7 +1571,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="6"/>
+      <c r="J29" s="3"/>
     </row>
     <row r="30" ht="20" customHeight="1" spans="1:10">
       <c r="A30" s="1"/>
@@ -1566,7 +1585,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="6"/>
+      <c r="J30" s="3"/>
     </row>
     <row r="31" ht="20" customHeight="1" spans="1:10">
       <c r="A31" s="1"/>
@@ -1580,227 +1599,227 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="6"/>
+      <c r="J31" s="3"/>
     </row>
     <row r="32" ht="25" customHeight="1" spans="1:10">
-      <c r="A32" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
+      <c r="A32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
     </row>
     <row r="41" ht="25" customHeight="1" spans="1:10">
-      <c r="A41" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
+      <c r="A41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="24">
